--- a/Training.xlsx
+++ b/Training.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Tool &amp; Acc" sheetId="1" r:id="rId1"/>
     <sheet name="Training" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Skype</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>https://riouxsvn.com/</t>
+  </si>
+  <si>
+    <t>ABC TEST SVN</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,7 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,6 +633,9 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>

--- a/Training.xlsx
+++ b/Training.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Skype</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>https://riouxsvn.com/</t>
-  </si>
-  <si>
-    <t>ABC TEST SVN</t>
   </si>
 </sst>
 </file>
@@ -593,7 +590,7 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,9 +630,6 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
